--- a/data/trans_orig/P1406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5505</v>
+        <v>4954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003343937153684522</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01867660983830983</v>
+        <v>0.01680750659611822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -763,19 +763,19 @@
         <v>6169</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2137</v>
+        <v>2110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13589</v>
+        <v>13727</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02147768473993131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007440969959865993</v>
+        <v>0.007346570250076641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04730714954010264</v>
+        <v>0.04778710942313073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -784,19 +784,19 @@
         <v>7155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2972</v>
+        <v>2922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15015</v>
+        <v>16040</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0122940749630732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005106675550705394</v>
+        <v>0.00502133212638761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02579933527048702</v>
+        <v>0.0275606691467792</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>293752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289233</v>
+        <v>289784</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -822,7 +822,7 @@
         <v>0.9966560628463155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9813233901616909</v>
+        <v>0.9831924934038815</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,19 +834,19 @@
         <v>281076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273656</v>
+        <v>273518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285108</v>
+        <v>285135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9785223152600687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9526928504598973</v>
+        <v>0.9522128905768693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9925590300401338</v>
+        <v>0.9926534297499233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -855,19 +855,19 @@
         <v>574828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>566968</v>
+        <v>565943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>579011</v>
+        <v>579061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9877059250369268</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9742006647295132</v>
+        <v>0.9724393308532209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9948933244492946</v>
+        <v>0.9949786678736124</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>11323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6050</v>
+        <v>6106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18814</v>
+        <v>19477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02239839971325518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0119681768758953</v>
+        <v>0.01207839806723717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03721745242658488</v>
+        <v>0.03852764079004695</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>8298</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3225</v>
+        <v>3237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16690</v>
+        <v>16341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01584382587752222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006156440446240752</v>
+        <v>0.006179300827686471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03186463621632677</v>
+        <v>0.03119882192057083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1001,19 +1001,19 @@
         <v>19621</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12135</v>
+        <v>11468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30739</v>
+        <v>30938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01906304344686248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01178990475418887</v>
+        <v>0.01114194313114603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02986453418320066</v>
+        <v>0.03005711207231198</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>494204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486713</v>
+        <v>486050</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499477</v>
+        <v>499421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9776016002867448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9627825475734152</v>
+        <v>0.961472359209953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9880318231241046</v>
+        <v>0.9879216019327628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1051,19 +1051,19 @@
         <v>515467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507075</v>
+        <v>507424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520540</v>
+        <v>520528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9841561741224778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9681353637836733</v>
+        <v>0.9688011780794291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9938435595537592</v>
+        <v>0.9938206991723135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>934</v>
@@ -1072,19 +1072,19 @@
         <v>1009671</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>998553</v>
+        <v>998354</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017157</v>
+        <v>1017824</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9809369565531375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9701354658167992</v>
+        <v>0.9699428879276869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988210095245811</v>
+        <v>0.9888580568688539</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>3156</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9573</v>
+        <v>8477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009255919253916495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002879117196216233</v>
+        <v>0.00289540174103392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02807083743454401</v>
+        <v>0.02485656304258414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1210,19 +1210,19 @@
         <v>3156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8258</v>
+        <v>8535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004746075753498693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001471570085408933</v>
+        <v>0.001470313461434853</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01241636388737132</v>
+        <v>0.01283384190865701</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>337864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331447</v>
+        <v>332543</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340038</v>
+        <v>340033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9907440807460836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.971929162565456</v>
+        <v>0.9751434369574158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971208828037837</v>
+        <v>0.997104598258966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>633</v>
@@ -1273,19 +1273,19 @@
         <v>661910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656808</v>
+        <v>656531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664087</v>
+        <v>664088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9952539242465013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9875836361126288</v>
+        <v>0.987166158091343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985284299145911</v>
+        <v>0.9985296865385651</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4742</v>
+        <v>5238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002470192508632416</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01267929951894809</v>
+        <v>0.01400729358316906</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1398,19 +1398,19 @@
         <v>5188</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2063</v>
+        <v>1987</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12509</v>
+        <v>11585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01333802665235393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005304323437049932</v>
+        <v>0.005109282040558135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03216076707859199</v>
+        <v>0.02978456081772038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1419,19 +1419,19 @@
         <v>6112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13248</v>
+        <v>12789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008010723983053024</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002797104924794584</v>
+        <v>0.002806825866861736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01736465757449253</v>
+        <v>0.01676358856817767</v>
       </c>
     </row>
     <row r="14">
@@ -1448,7 +1448,7 @@
         <v>373058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>369240</v>
+        <v>368744</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1457,7 +1457,7 @@
         <v>0.9975298074913675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9873207004810518</v>
+        <v>0.9859927064168341</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1469,19 +1469,19 @@
         <v>383763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376442</v>
+        <v>377366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386888</v>
+        <v>386964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.986661973347646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9678392329214083</v>
+        <v>0.9702154391822798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946956765629501</v>
+        <v>0.9948907179594418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>709</v>
@@ -1490,19 +1490,19 @@
         <v>756821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749685</v>
+        <v>750144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>760799</v>
+        <v>760792</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.991989276016947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9826353424255075</v>
+        <v>0.9832364114318222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9972028950752054</v>
+        <v>0.9971931741331382</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>5383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2043</v>
+        <v>2084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11703</v>
+        <v>11904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02531923704894123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009610135729397699</v>
+        <v>0.009802050307304182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05504460771757299</v>
+        <v>0.05598543177627622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5305</v>
+        <v>5340</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004798286463260341</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02415826149283056</v>
+        <v>0.02431573817770473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>6437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2206</v>
+        <v>2262</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>13272</v>
@@ -1645,10 +1645,10 @@
         <v>0.01489322636977293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005103359136417179</v>
+        <v>0.005233386312525239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03070765314533583</v>
+        <v>0.03070692062021858</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>207235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200915</v>
+        <v>200714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210575</v>
+        <v>210534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9746807629510588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.944955392282427</v>
+        <v>0.9440145682237234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903898642706023</v>
+        <v>0.9901979496926958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -1686,7 +1686,7 @@
         <v>218537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214286</v>
+        <v>214251</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>219591</v>
@@ -1695,7 +1695,7 @@
         <v>0.9952017135367397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9758417385071695</v>
+        <v>0.9756842618222952</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1710,16 +1710,16 @@
         <v>418937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430003</v>
+        <v>429947</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.985106773630227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9692923468546641</v>
+        <v>0.969293079379781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948966408635828</v>
+        <v>0.9947666136874744</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>3920</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>964</v>
+        <v>1035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9021</v>
+        <v>9792</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01430626716704217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003518561180471294</v>
+        <v>0.003776272827368171</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03292510096516876</v>
+        <v>0.03573792320814722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7470</v>
+        <v>7044</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007428155126895795</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02686052408217743</v>
+        <v>0.02533078270666284</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1853,19 +1853,19 @@
         <v>5985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2082</v>
+        <v>2048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12309</v>
+        <v>12031</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01084157912980162</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003771779905110873</v>
+        <v>0.003709736744191425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02229607061725853</v>
+        <v>0.02179203114036975</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>270061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264960</v>
+        <v>264189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273017</v>
+        <v>272946</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9856937328329578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9670748990348312</v>
+        <v>0.9642620767918523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964814388195288</v>
+        <v>0.9962237271726319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>266</v>
@@ -1903,7 +1903,7 @@
         <v>276030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270626</v>
+        <v>271052</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278096</v>
@@ -1912,7 +1912,7 @@
         <v>0.9925718448731042</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9731394759178232</v>
+        <v>0.9746692172933373</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1924,19 +1924,19 @@
         <v>546092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539768</v>
+        <v>540046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549995</v>
+        <v>550029</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9891584208701983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9777039293827414</v>
+        <v>0.97820796885963</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.996228220094889</v>
+        <v>0.9962902632558086</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>5954</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12178</v>
+        <v>11312</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008982757231139348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00310351816025373</v>
+        <v>0.003093232331671276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01837383022124319</v>
+        <v>0.017067026637655</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2049,19 +2049,19 @@
         <v>6262</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2220</v>
+        <v>2966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12498</v>
+        <v>13632</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009024725792844742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003199369963851496</v>
+        <v>0.004274922050348847</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0180121587374531</v>
+        <v>0.01964623304082761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2070,19 +2070,19 @@
         <v>12215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6287</v>
+        <v>6237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21380</v>
+        <v>20898</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009004222018804024</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004634471534906086</v>
+        <v>0.00459773364861963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01575961627193264</v>
+        <v>0.01540451887768008</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>656834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>650610</v>
+        <v>651476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660731</v>
+        <v>660738</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9910172427688606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9816261697787567</v>
+        <v>0.9829329733623449</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9968964818397462</v>
+        <v>0.9969067676683288</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>630</v>
@@ -2120,19 +2120,19 @@
         <v>687591</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681355</v>
+        <v>680221</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>691633</v>
+        <v>690887</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9909752742071553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9819878412625469</v>
+        <v>0.9803537669591723</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9968006300361486</v>
+        <v>0.9957250779496511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1242</v>
@@ -2141,19 +2141,19 @@
         <v>1344426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1335261</v>
+        <v>1335743</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1350354</v>
+        <v>1350404</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.990995777981196</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9842403837280675</v>
+        <v>0.98459548112232</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9953655284650944</v>
+        <v>0.9954022663513805</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>12083</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6441</v>
+        <v>5552</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22840</v>
+        <v>21354</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01550897856062852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008267593356392695</v>
+        <v>0.007126050915171923</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02931552513198636</v>
+        <v>0.02740813748329557</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2266,19 +2266,19 @@
         <v>10926</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5588</v>
+        <v>5293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19546</v>
+        <v>20177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01330171798734402</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006803383571394925</v>
+        <v>0.006443853373424229</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02379598511786045</v>
+        <v>0.0245645561020014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2287,19 +2287,19 @@
         <v>23009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14511</v>
+        <v>14188</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34695</v>
+        <v>35909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01437618241488206</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009066499285713486</v>
+        <v>0.008864742829133932</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02167752174632482</v>
+        <v>0.02243635747509099</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>767015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756258</v>
+        <v>757744</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>772657</v>
+        <v>773546</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9844910214393715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9706844748680132</v>
+        <v>0.972591862516704</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9917324066436074</v>
+        <v>0.9928739490848281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>745</v>
@@ -2337,19 +2337,19 @@
         <v>810469</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>801849</v>
+        <v>801218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815807</v>
+        <v>816102</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.986698282012656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9762040148821394</v>
+        <v>0.9754354438979999</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.993196616428605</v>
+        <v>0.993556146626576</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1452</v>
@@ -2358,19 +2358,19 @@
         <v>1577484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1565798</v>
+        <v>1564584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1585982</v>
+        <v>1586305</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.985623817585118</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.978322478253676</v>
+        <v>0.9775636425249093</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9909335007142868</v>
+        <v>0.9911352571708661</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>40572</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29365</v>
+        <v>29120</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57124</v>
+        <v>54358</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0118397048036285</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008569222295987935</v>
+        <v>0.008497753419120577</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01666987874346042</v>
+        <v>0.01586261225554083</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -2483,19 +2483,19 @@
         <v>43119</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30838</v>
+        <v>30813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59298</v>
+        <v>56819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01213289531726442</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008677112081815323</v>
+        <v>0.008670066365026851</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0166853382604414</v>
+        <v>0.01598769493993047</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>77</v>
@@ -2504,19 +2504,19 @@
         <v>83691</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66788</v>
+        <v>66138</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>102704</v>
+        <v>104469</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01198896994547672</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009567584699024911</v>
+        <v>0.009474400150950135</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01471262135815735</v>
+        <v>0.01496537995243023</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>3386207</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3369655</v>
+        <v>3372421</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3397414</v>
+        <v>3397659</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9881602951963715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9833301212565394</v>
+        <v>0.9841373877444589</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9914307777040121</v>
+        <v>0.9915022465808794</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3256</v>
@@ -2554,19 +2554,19 @@
         <v>3510797</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3494618</v>
+        <v>3497097</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3523078</v>
+        <v>3523103</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9878671046827355</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9833146617395585</v>
+        <v>0.9840123050600695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9913228879181847</v>
+        <v>0.9913299336349731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6427</v>
@@ -2575,19 +2575,19 @@
         <v>6897003</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6877990</v>
+        <v>6876225</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6913906</v>
+        <v>6914556</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9880110300545233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9852873786418428</v>
+        <v>0.9850346200475698</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9904324153009751</v>
+        <v>0.9905255998490499</v>
       </c>
     </row>
     <row r="30">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4694</v>
+        <v>4663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003167249861802882</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01597765137570843</v>
+        <v>0.01587233273588284</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7311</v>
+        <v>7926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007664986938553093</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02532246504319836</v>
+        <v>0.02745512688387982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2965,19 +2965,19 @@
         <v>3143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8547</v>
+        <v>7954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005396589675236719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001577520992944931</v>
+        <v>0.001576112084507406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01467380973626372</v>
+        <v>0.01365587905200074</v>
       </c>
     </row>
     <row r="5">
@@ -2994,7 +2994,7 @@
         <v>292831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289067</v>
+        <v>289098</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -3003,7 +3003,7 @@
         <v>0.9968327501381972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9840223486242964</v>
+        <v>0.984127667264117</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>286490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281392</v>
+        <v>280777</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>288703</v>
@@ -3024,7 +3024,7 @@
         <v>0.9923350130614469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9746775349568015</v>
+        <v>0.9725448731161201</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3036,19 +3036,19 @@
         <v>579321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>573917</v>
+        <v>574510</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581545</v>
+        <v>581546</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9946034103247633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9853261902637357</v>
+        <v>0.9863441209479991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9984224790070551</v>
+        <v>0.9984238879154926</v>
       </c>
     </row>
     <row r="6">
@@ -3140,19 +3140,19 @@
         <v>5423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1918</v>
+        <v>1859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12382</v>
+        <v>11570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01079105048234545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003817143304136208</v>
+        <v>0.003698451807782123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02463726678193368</v>
+        <v>0.02302106097965534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3161,19 +3161,19 @@
         <v>5148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1969</v>
+        <v>1995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11436</v>
+        <v>11449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009842172147572424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003763382860360993</v>
+        <v>0.003813447158148976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02186189106831622</v>
+        <v>0.02188746325053247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3182,19 +3182,19 @@
         <v>10572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5624</v>
+        <v>5364</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19843</v>
+        <v>19902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01030712463573582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005483410738603867</v>
+        <v>0.005229559782586409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0193462740346945</v>
+        <v>0.01940387731243928</v>
       </c>
     </row>
     <row r="8">
@@ -3211,19 +3211,19 @@
         <v>497152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490193</v>
+        <v>491005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500657</v>
+        <v>500716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9892089495176546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9753627332180664</v>
+        <v>0.976978939020345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961828566958638</v>
+        <v>0.9963015481922178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -3232,19 +3232,19 @@
         <v>517936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511648</v>
+        <v>511635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521115</v>
+        <v>521089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9901578278524276</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9781381089316838</v>
+        <v>0.9781125367494676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962366171396391</v>
+        <v>0.9961865528418511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>949</v>
@@ -3253,19 +3253,19 @@
         <v>1015087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005816</v>
+        <v>1005757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020035</v>
+        <v>1020295</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9896928753642642</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.980653725965306</v>
+        <v>0.9805961226875602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9945165892613963</v>
+        <v>0.9947704402174136</v>
       </c>
     </row>
     <row r="9">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6880</v>
+        <v>5872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005743980611470128</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02045823751746294</v>
+        <v>0.01745980915959888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6488</v>
+        <v>7816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002949807731125222</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00990777827149927</v>
+        <v>0.01193553734997174</v>
       </c>
     </row>
     <row r="11">
@@ -3433,7 +3433,7 @@
         <v>334377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329429</v>
+        <v>330437</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3442,7 +3442,7 @@
         <v>0.9942560193885299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.979541762482537</v>
+        <v>0.9825401908404011</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>652942</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648386</v>
+        <v>647058</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654874</v>
@@ -3463,7 +3463,7 @@
         <v>0.9970501922688748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9900922217284982</v>
+        <v>0.9880644626500265</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10394</v>
+        <v>9388</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004767647751696249</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02809497530600197</v>
+        <v>0.02537634868727361</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3579,19 +3579,19 @@
         <v>3024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8227</v>
+        <v>8029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007807832041982954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00250103804707478</v>
+        <v>0.002492333862102114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02124339266419394</v>
+        <v>0.02073228216475084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -3600,19 +3600,19 @@
         <v>4788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12043</v>
+        <v>12514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006322505937444312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001371049705628327</v>
+        <v>0.001360296900852842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01590430712981229</v>
+        <v>0.01652570749554982</v>
       </c>
     </row>
     <row r="14">
@@ -3629,7 +3629,7 @@
         <v>368200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359570</v>
+        <v>360576</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -3638,7 +3638,7 @@
         <v>0.9952323522483038</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9719050246939981</v>
+        <v>0.9746236513127262</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3650,19 +3650,19 @@
         <v>384259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379056</v>
+        <v>379254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386314</v>
+        <v>386318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.992192167958017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9787566073358061</v>
+        <v>0.9792677178352492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9974989619529252</v>
+        <v>0.9975076661378979</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -3671,19 +3671,19 @@
         <v>752459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>745204</v>
+        <v>744733</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756209</v>
+        <v>756217</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9936774940625557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9840956928701874</v>
+        <v>0.9834742925044501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986289502943717</v>
+        <v>0.9986397030991472</v>
       </c>
     </row>
     <row r="15">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6492</v>
+        <v>5687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005045839940797692</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03073559276547817</v>
+        <v>0.0269260026974545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5963</v>
+        <v>5993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008975249191695274</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02728019145653242</v>
+        <v>0.027414771766461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3817,19 +3817,19 @@
         <v>3028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8923</v>
+        <v>9027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007044215455924378</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002272862510313719</v>
+        <v>0.00226592324643503</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02076072764567405</v>
+        <v>0.02100176962313118</v>
       </c>
     </row>
     <row r="17">
@@ -3846,7 +3846,7 @@
         <v>210155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204729</v>
+        <v>205534</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3855,7 +3855,7 @@
         <v>0.9949541600592023</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9692644072345221</v>
+        <v>0.9730739973025447</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>216625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212624</v>
+        <v>212594</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -3876,7 +3876,7 @@
         <v>0.9910247508083048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9727198085434676</v>
+        <v>0.9725852282335412</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3888,19 +3888,19 @@
         <v>426780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420885</v>
+        <v>420781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428831</v>
+        <v>428834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9929557845440756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.979239272354326</v>
+        <v>0.9789982303768688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977271374896863</v>
+        <v>0.997734076753565</v>
       </c>
     </row>
     <row r="18">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4495</v>
+        <v>5174</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003065424940078574</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01708344740436173</v>
+        <v>0.01966276696481607</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4013,19 +4013,19 @@
         <v>4385</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1259</v>
+        <v>971</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10556</v>
+        <v>10077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01605599451663275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004610968164285181</v>
+        <v>0.003553781231852592</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03865200126583882</v>
+        <v>0.03689639562648774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -4034,19 +4034,19 @@
         <v>5192</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1808</v>
+        <v>2088</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11654</v>
+        <v>13183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009681739744503742</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003371011564943675</v>
+        <v>0.003894254035329174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02173282865507651</v>
+        <v>0.02458478255288529</v>
       </c>
     </row>
     <row r="20">
@@ -4063,7 +4063,7 @@
         <v>262316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258628</v>
+        <v>257949</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4072,7 +4072,7 @@
         <v>0.9969345750599214</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9829165525956362</v>
+        <v>0.9803372330351827</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4084,19 +4084,19 @@
         <v>268730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262559</v>
+        <v>263038</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271856</v>
+        <v>272144</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9839440054833672</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9613479987341589</v>
+        <v>0.9631036043735124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9953890318357148</v>
+        <v>0.9964462187681474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -4105,19 +4105,19 @@
         <v>531046</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>524584</v>
+        <v>523055</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>534430</v>
+        <v>534150</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9903182602554963</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9782671713449234</v>
+        <v>0.9754152174471143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9966289884350563</v>
+        <v>0.9961057459646708</v>
       </c>
     </row>
     <row r="21">
@@ -4209,19 +4209,19 @@
         <v>4125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9429</v>
+        <v>10430</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006282118860058111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001580145799000703</v>
+        <v>0.001605688219873326</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01436186295510354</v>
+        <v>0.01588545110324452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4230,19 +4230,19 @@
         <v>7386</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3306</v>
+        <v>2388</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15875</v>
+        <v>14916</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01068358969659032</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004782616661405364</v>
+        <v>0.003454584752739143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02296436947178896</v>
+        <v>0.02157676495364421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4251,19 +4251,19 @@
         <v>11510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5901</v>
+        <v>5501</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22071</v>
+        <v>20152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008539570262800153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004378370865804198</v>
+        <v>0.004081061415972936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01637482183478183</v>
+        <v>0.01495137409855409</v>
       </c>
     </row>
     <row r="23">
@@ -4280,19 +4280,19 @@
         <v>652433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>647129</v>
+        <v>646128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655521</v>
+        <v>655504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9937178811399419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9856381370448967</v>
+        <v>0.9841145488967549</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984198542009993</v>
+        <v>0.9983943117801267</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>640</v>
@@ -4301,19 +4301,19 @@
         <v>683908</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675419</v>
+        <v>676378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>687988</v>
+        <v>688906</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9893164103034097</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9770356305282111</v>
+        <v>0.9784232350463558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9952173833385946</v>
+        <v>0.9965454152472609</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1216</v>
@@ -4322,19 +4322,19 @@
         <v>1336342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1325781</v>
+        <v>1327700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1341951</v>
+        <v>1342351</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9914604297371998</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9836251781652183</v>
+        <v>0.9850486259014459</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9956216291341959</v>
+        <v>0.995918938584027</v>
       </c>
     </row>
     <row r="24">
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5395</v>
+        <v>5759</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001457418717841016</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006929336142235816</v>
+        <v>0.007396743090054578</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4447,19 +4447,19 @@
         <v>8217</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3416</v>
+        <v>3460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15658</v>
+        <v>17094</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00994558900247984</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004134684193711267</v>
+        <v>0.004187859897213481</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01895222794194597</v>
+        <v>0.02069036574062271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4468,19 +4468,19 @@
         <v>9351</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4528</v>
+        <v>4424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16931</v>
+        <v>18157</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005827349362346779</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002821807650464394</v>
+        <v>0.0027567135010417</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01055030627543174</v>
+        <v>0.01131464910500425</v>
       </c>
     </row>
     <row r="26">
@@ -4497,7 +4497,7 @@
         <v>777448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>773188</v>
+        <v>772824</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -4506,7 +4506,7 @@
         <v>0.998542581282159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9930706638577639</v>
+        <v>0.9926032569099447</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4518,19 +4518,19 @@
         <v>817950</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>810509</v>
+        <v>809073</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>822751</v>
+        <v>822707</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9900544109975201</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9810477720580545</v>
+        <v>0.9793096342593772</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9958653158062888</v>
+        <v>0.9958121401027865</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1497</v>
@@ -4539,19 +4539,19 @@
         <v>1595399</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1587819</v>
+        <v>1586593</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1600222</v>
+        <v>1600326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9941726506376533</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9894496937245684</v>
+        <v>0.9886853508949949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9971781923495356</v>
+        <v>0.9972432864989581</v>
       </c>
     </row>
     <row r="27">
@@ -4643,19 +4643,19 @@
         <v>15249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8985</v>
+        <v>8798</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26159</v>
+        <v>25469</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004492540558024594</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002647089184754867</v>
+        <v>0.002591952322043402</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007706775582614255</v>
+        <v>0.007503496251335963</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -4664,19 +4664,19 @@
         <v>34266</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23359</v>
+        <v>24728</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49204</v>
+        <v>49067</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00966725887452965</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006590253592379292</v>
+        <v>0.006976462182061841</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01388156574530091</v>
+        <v>0.01384294555964022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -4685,19 +4685,19 @@
         <v>49515</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>35122</v>
+        <v>35621</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65888</v>
+        <v>65566</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007135902855843116</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005061583059749334</v>
+        <v>0.005133551164219857</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009495495391490583</v>
+        <v>0.009449122752126898</v>
       </c>
     </row>
     <row r="29">
@@ -4714,19 +4714,19 @@
         <v>3379101</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3368191</v>
+        <v>3368881</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3385365</v>
+        <v>3385552</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9955074594419754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9922932244173858</v>
+        <v>0.9924965037486642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9973529108152454</v>
+        <v>0.9974080476779567</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3307</v>
@@ -4735,19 +4735,19 @@
         <v>3510276</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3495338</v>
+        <v>3495475</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3521183</v>
+        <v>3519814</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9903327411254703</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9861184342546989</v>
+        <v>0.9861570544403597</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9934097464076204</v>
+        <v>0.9930235378179378</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6524</v>
@@ -4756,19 +4756,19 @@
         <v>6889377</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6873004</v>
+        <v>6873326</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6903770</v>
+        <v>6903271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9928640971441569</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9905045046085093</v>
+        <v>0.9905508772478731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9949384169402506</v>
+        <v>0.9948664488357801</v>
       </c>
     </row>
     <row r="30">
